--- a/OITM/Python/1/2_feladat/oitm_tour.xlsx
+++ b/OITM/Python/1/2_feladat/oitm_tour.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="TOUR_ROADS"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="12">
   <si>
     <t>A</t>
   </si>
@@ -47,10 +47,10 @@
     <t>J</t>
   </si>
   <si>
+    <t>FL</t>
+  </si>
+  <si>
     <t>K</t>
-  </si>
-  <si>
-    <t>FL</t>
   </si>
 </sst>
 </file>
@@ -68,7 +68,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -100,12 +100,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -418,18 +421,18 @@
   </sheetPr>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -438,9 +441,9 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -449,9 +452,9 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -460,7 +463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,7 +474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -482,7 +485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -493,7 +496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -504,7 +507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -515,7 +518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -526,7 +529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -537,7 +540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -548,7 +551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -559,7 +562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -570,7 +573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -581,7 +584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -592,18 +595,18 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" s="2">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -614,12 +617,12 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -635,14 +638,14 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -729,7 +732,15 @@
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
         <v>5</v>
       </c>
     </row>
